--- a/biology/Zoologie/Bathyceramaster/Bathyceramaster.xlsx
+++ b/biology/Zoologie/Bathyceramaster/Bathyceramaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bathyceramaster est un genre d'étoiles de mer abyssales de la famille des Goniasteridae. Il a été décrit en 2016 par Christopher L. Mah (d)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bathyceramaster est un genre d'étoiles de mer abyssales de la famille des Goniasteridae. Il a été décrit en 2016 par Christopher L. Mah (d). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (6 novembre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (6 novembre 2016) :
 Bathyceramaster careyi Mah, 2016
 Bathyceramaster elegans (Ludwig, 1905)
 Bathyceramaster inornata Mah, 2022
@@ -550,9 +564,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les deux espèces vivent dans les abysses de l'océan Pacifique Est, à plusieurs milliers de mètres de profondeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux espèces vivent dans les abysses de l'océan Pacifique Est, à plusieurs milliers de mètres de profondeur.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Christopher Mah, « Deep-sea (&gt;1000 m) Goniasteridae (Valvatida; Asteroidea) from the North Pacific, including an overview of Sibogaster, Bathyceramaster n. gen. and three new species », Zootaxa, vol. 4175, no 2,‎ 2016 (DOI https://dx.doi.org/10.11646/zootaxa.4175.2.1, lire en ligne).</t>
         </is>
